--- a/N65_HappyLunch_UAT_OurTeam.xlsx
+++ b/N65_HappyLunch_UAT_OurTeam.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ngan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AndroidStudioProjects\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2AA273-488D-44BA-AC11-28FB99A9F5D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="142">
   <si>
     <t>STT</t>
   </si>
@@ -53,12 +54,6 @@
     <t>Nhóm code đồng ý chỉnh sửa (có/không)</t>
   </si>
   <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Nhập tên đăng nhập, nhập mật khẩu, chọn loại đăng nhập, nhấn đăng nhập</t>
-  </si>
-  <si>
     <t>Đăng nhập thành công</t>
   </si>
   <si>
@@ -71,24 +66,9 @@
     <t>None</t>
   </si>
   <si>
-    <t>Đăng nhập sai tên đăng nhập</t>
-  </si>
-  <si>
-    <t>Nhập tên đăng nhập không đúng, nhập mật khẩu, chọn loại đăng nhập, nhấn đăng nhập</t>
-  </si>
-  <si>
     <t>Báo lỗi đăng nhập thất bại</t>
   </si>
   <si>
-    <t>Đăng nhập sai mật khẩu</t>
-  </si>
-  <si>
-    <t>Nhập tên đăng nhập đúng, nhập mật khẩu không đúng, chọn loại đăng nhập, nhấn đăng nhập</t>
-  </si>
-  <si>
-    <t>Đăng ký</t>
-  </si>
-  <si>
     <t>Nhập email, mật khẩu, và vào email đó xác nhận để tạo tài khoản</t>
   </si>
   <si>
@@ -272,9 +252,6 @@
     <t>UAT NHÓM 65 - TỰ TEST</t>
   </si>
   <si>
-    <t>Đăng nhập sau đó thoát ra</t>
-  </si>
-  <si>
     <t>Đăng nhập sau đó thoát app</t>
   </si>
   <si>
@@ -320,9 +297,6 @@
     <t>Hiển thị dialog báo lỗi</t>
   </si>
   <si>
-    <t>Thêm và điều chỉnh top món ăn</t>
-  </si>
-  <si>
     <t>Chọn món ăn và chọn thêm vào top món ăn</t>
   </si>
   <si>
@@ -336,12 +310,153 @@
   </si>
   <si>
     <t>Đã bỏ chức năng này</t>
+  </si>
+  <si>
+    <t>Đổi avatar khách hàng</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn vào avatar, chọn ảnh và xác nhận</t>
+  </si>
+  <si>
+    <t>Đổi avatar thành công</t>
+  </si>
+  <si>
+    <t>Đổi avatar khách hàng - chọn sai ảnh</t>
+  </si>
+  <si>
+    <t>Vào tab Account và nhấn vào avatar, chọn ảnh sai và xác nhận</t>
+  </si>
+  <si>
+    <t>Báo lỗi</t>
+  </si>
+  <si>
+    <t>Tìm kiếm món ăn - Món không tồn tại</t>
+  </si>
+  <si>
+    <t>Nhập món ăn cần tìm vào thanh tìm kiếm, sau đó hiển thị trống</t>
+  </si>
+  <si>
+    <t>Hiển thị trống</t>
+  </si>
+  <si>
+    <t>Hủy món - hủy một phần</t>
+  </si>
+  <si>
+    <t>Chọn món ăn và hủy món, nhưng không hết số lượng</t>
+  </si>
+  <si>
+    <t>Mua lại từ Second Shop - mua một phần</t>
+  </si>
+  <si>
+    <t>Vào Second Shop chọn món ăn cần mua và mua với giá 90%, không mua toàn bộ</t>
+  </si>
+  <si>
+    <t>Chốt món ăn</t>
+  </si>
+  <si>
+    <t>Xác nhận thành công và trừ tiền</t>
+  </si>
+  <si>
+    <t>Chốt món ăn, mua toàn bộ món ăn</t>
+  </si>
+  <si>
+    <t>Chốt món ăn, mua toàn bộ món ăn - không đủ tiền</t>
+  </si>
+  <si>
+    <t>Chốt món ăn, tài khoản không đủ tiền</t>
+  </si>
+  <si>
+    <t>Báo lỗi không đủ tiền</t>
+  </si>
+  <si>
+    <t>Nhận món ăn - không nhận hết số lượng</t>
+  </si>
+  <si>
+    <t>Vào giao diện ordered, nhận món ăn, nhưng không nhận hết</t>
+  </si>
+  <si>
+    <t>Xóa món ăn</t>
+  </si>
+  <si>
+    <t>Vào giao diện Shop, xóa món ăn</t>
+  </si>
+  <si>
+    <t>Món ăn được xóa</t>
+  </si>
+  <si>
+    <t>Thêm top món ăn</t>
+  </si>
+  <si>
+    <t>Điều chỉnh top món ăn</t>
+  </si>
+  <si>
+    <t>Điều chỉnh top thành công</t>
+  </si>
+  <si>
+    <t>Đăng nhập customer sai tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập customer sai mật khẩu</t>
+  </si>
+  <si>
+    <t>Đăng nhập customer sau đó thoát ra</t>
+  </si>
+  <si>
+    <t>Đăng ký customer</t>
+  </si>
+  <si>
+    <t>Đăng nhập customer</t>
+  </si>
+  <si>
+    <t>Đăng nhập employee</t>
+  </si>
+  <si>
+    <t>Đăng nhập employee sai tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập employee sai mật khẩu</t>
+  </si>
+  <si>
+    <t>Đăng nhập employee sau đó thoát ra</t>
+  </si>
+  <si>
+    <t>Đăng ký employee</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập, nhập mật khẩu, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập không đúng, nhập mật khẩu, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập đúng, nhập mật khẩu không đúng, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập, nhập mật khẩu, chọn employee, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập không đúng, nhập mật khẩu, chọn employee, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập tên đăng nhập đúng, nhập mật khẩu không đúng, chọn employee, nhấn đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập employee sau đó thoát app</t>
+  </si>
+  <si>
+    <t>Nhập email, mật khẩu, chọn employee và vào email đó xác nhận để tạo tài khoản</t>
+  </si>
+  <si>
+    <t>Đổi avatar employee</t>
+  </si>
+  <si>
+    <t>Đổi avatar employee - chọn sai ảnh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,11 +913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +934,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -864,57 +979,57 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4" s="4">
         <v>65</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4">
         <v>65</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -922,57 +1037,57 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="4">
         <v>65</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="4">
         <v>65</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -980,329 +1095,329 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4">
+        <v>65</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4">
+        <v>65</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4">
+        <v>65</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4">
+        <v>65</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4">
+        <v>65</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4">
+        <v>65</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4">
-        <v>65</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
+      <c r="I15" s="4">
+        <v>65</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4">
-        <v>65</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>65</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="4">
-        <v>65</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="4">
-        <v>65</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="4">
-        <v>65</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="4">
-        <v>65</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I16" s="4">
         <v>65</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4">
         <v>65</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I18" s="4">
         <v>65</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="I19" s="4">
         <v>65</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -1310,282 +1425,831 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I20" s="4">
         <v>65</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="4">
+        <v>65</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I22" s="4">
         <v>65</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I23" s="4">
         <v>65</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I24" s="4">
         <v>65</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I25" s="4">
         <v>65</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="4">
+        <v>65</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="4">
+        <v>65</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="4">
+        <v>65</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="4">
+        <v>65</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="4">
+        <v>65</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="4">
+        <v>65</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="4">
+        <v>65</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="4">
+        <v>65</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="4">
+        <v>65</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="4">
+        <v>65</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="4">
-        <v>65</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
+      <c r="H37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="I37" s="4">
+        <v>65</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="4">
+        <v>65</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>34</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="4">
+        <v>65</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="4">
+        <v>65</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="4">
+        <v>65</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="4">
+        <v>65</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>38</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="4">
+        <v>65</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="4">
+        <v>65</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="4">
+        <v>65</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>41</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="4">
-        <v>65</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="4">
+        <v>65</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>42</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="4">
+        <v>65</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>43</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="4">
-        <v>65</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="4">
-        <v>65</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>14</v>
+      <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="4">
+        <v>65</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:J33"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/N65_HappyLunch_UAT_OurTeam.xlsx
+++ b/N65_HappyLunch_UAT_OurTeam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AndroidStudioProjects\Happy_Lunch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2AA273-488D-44BA-AC11-28FB99A9F5D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA19A5-E641-48E7-992C-35E03BC84274}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="142">
   <si>
     <t>STT</t>
   </si>
@@ -914,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J48"/>
+  <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
@@ -1795,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
         <v>57</v>
@@ -1842,13 +1842,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>10</v>
@@ -1866,18 +1866,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>10</v>
@@ -1900,71 +1900,71 @@
         <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I37" s="4">
         <v>65</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I38" s="4">
         <v>65</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>10</v>
@@ -1982,27 +1982,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="I40" s="4">
         <v>65</v>
@@ -2011,33 +2011,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="I41" s="4">
         <v>65</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -2045,13 +2045,13 @@
         <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>20</v>
@@ -2069,33 +2069,33 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="I43" s="4">
         <v>65</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -2103,13 +2103,13 @@
         <v>39</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>10</v>
@@ -2127,18 +2127,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>10</v>
@@ -2161,13 +2161,13 @@
         <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>10</v>
@@ -2190,13 +2190,13 @@
         <v>42</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>10</v>
@@ -2219,37 +2219,91 @@
         <v>43</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="4">
+        <v>65</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>44</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="4">
+        <v>65</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>45</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="4">
-        <v>65</v>
-      </c>
-      <c r="J48" s="4" t="s">
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="4">
+        <v>65</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:J33"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
